--- a/prot_test.xlsx
+++ b/prot_test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Gene Name</t>
   </si>
@@ -38,31 +38,13 @@
     <t>Chain if applicable</t>
   </si>
   <si>
-    <t>ABL1</t>
-  </si>
-  <si>
-    <t>1AB2</t>
-  </si>
-  <si>
-    <t>24, 37, 43, 66, 71, 81, 104</t>
-  </si>
-  <si>
-    <t>&gt;1AB2_REM465 1-9, 36-45</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>AKT1</t>
-  </si>
-  <si>
-    <t>1H10</t>
-  </si>
-  <si>
-    <t>3, 17, 31, 32, 46, 69</t>
-  </si>
-  <si>
-    <t>&gt;1H10_REM465 92-99, 113-124</t>
+    <t>2ABL</t>
+  </si>
+  <si>
+    <t>76, 86, 159, 172, 178, 201, 206, 216</t>
+  </si>
+  <si>
+    <t>&gt;2ABL_REM465 97-106</t>
   </si>
 </sst>
 </file>
@@ -72,7 +54,7 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -103,12 +85,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
@@ -156,7 +132,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -167,14 +143,6 @@
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
@@ -194,10 +162,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G3" activeCellId="0" pane="topLeft" sqref="G3"/>
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -205,7 +173,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.4285714285714"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -229,48 +197,27 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="n">
-        <v>109</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>11</v>
-      </c>
+      <c r="G2" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="3">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>125</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
